--- a/Led controlled by PC/Led_controlled_by_pc.xlsx
+++ b/Led controlled by PC/Led_controlled_by_pc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Ideas" sheetId="5" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="Tool" sheetId="4" r:id="rId3"/>
     <sheet name="Arduino" sheetId="6" r:id="rId4"/>
     <sheet name="Over 5m LED RGB strip" sheetId="7" r:id="rId5"/>
+    <sheet name="Gia cong SMD" sheetId="8" r:id="rId6"/>
+    <sheet name="Linh kien" sheetId="9" r:id="rId7"/>
+    <sheet name="Gia cong Board" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
   <si>
     <t>Component - Level 1</t>
   </si>
@@ -187,6 +190,103 @@
   <si>
     <t>Bàn cắt song song chính xác</t>
   </si>
+  <si>
+    <t>Cty</t>
+  </si>
+  <si>
+    <t>Thông tin</t>
+  </si>
+  <si>
+    <t>http://rongbay.com/Ha-Noi/Gia-cong-SMT-lap-rap-linh-kien-dien-tu-lap-rap-mach-dien-tu-c280-raovat-25541354.html</t>
+  </si>
+  <si>
+    <t>Thông tin chi tiết liên hệ Vân Anh 0988214191
+Mail: giacongsmt@gmail.com
+skype: giacongsmt</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>http://raovat.chosaigon.com/show/852792_Nhan-gia-cong-mach-han-linh-kien-dan-SMD.html</t>
+  </si>
+  <si>
+    <t>Công ty TNHH điện tử công nghiệp RITECH
+RITECH INDUSTRIAL ELECTRONICS COMPANY LIMITED
+Trụ sở chính: 79 Nguyễn Khang, Trung Hòa, Cầu Giấy, Hà Nội
+Địa điểm giao dịch: Phú Diễn, Từ Liêm, Hà nội
+Hotline: 0979578581
+Email: ritech.vn@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lắp ráp linh kiện tự động tại Hà Nội - Liên hệ: 0983980723 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V-50PyqYvyc</t>
+  </si>
+  <si>
+    <t>0902703730
+dangmientay@gmail.com
+17/1b nguyễn thị minh khai phường bến nghé quận 1 ,tp hcm</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>http://www.saokim.vn/index.php?lang=en&amp;option=com_content&amp;Itemid=55</t>
+  </si>
+  <si>
+    <t>VP: Tầng 1 Tòa nhà Arirang 131 Trần Huy Liệu, Phường 8, Quận Phú Nhuận, Tp.HCM
+H/P: 0903.913.747
+Email: lkdt@saokim.vn</t>
+  </si>
+  <si>
+    <t>Thong tin</t>
+  </si>
+  <si>
+    <t>https://muaban.net/do-dien-tu-khac-quan-binh-thanh-l5919-c69/ic-dan-linh-kien-smd-bo-mach-pcb-gia-re-chat-luong-cao-id29648078</t>
+  </si>
+  <si>
+    <t>CÔNG TY THƯƠNG MẠI LINH KIỆN ĐẠI DƯƠNG 
+Địa chỉ: 79/6T2, Quốc lộ 13, P.26, Q. Bình Thạnh, Tp.Hồ Chí Minh 
+Điện thoại: 0901340360 hoặc 0909884289 – gặp Mr. Tài 
+Email: linhkiendaiduong@gmail.com Skype: taipkd</t>
+  </si>
+  <si>
+    <t>http://sieuthuat.com/</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THƯƠNG MẠI SẢN XUẤT SIÊU THUẬT
+Đ/c: 95/10 Phạm Văn Hai, Phường 3, Q.Tân Bình
+VPĐD: 528/3 Lê Quang Định, P1, Gò Vấp, HCM
+Tel: 08.2210 6822 - Fax: 08.38422878</t>
+  </si>
+  <si>
+    <t>http://www.chipn24.com/ct/chi-tiet/861/transistor-dan-2n3904-mmbt3904-npn-sot23-1am-smd.html</t>
+  </si>
+  <si>
+    <t>Địa chỉ: 32/70/1D Ông Ích Khiêm, P.14, Q.11, TP.HCM 
+(vào hẻm 32/70, rẽ trái hẻm đầu tiên)
+ĐT: O8.6264.1482 (ĐT bàn)
+Hỗ trợ kỹ thuật: O9O6.81O.765 (Mr. Nguyên) (no sms)
+Email: sale@chipn24.com
+Copyright© 2015 by chipn24.com</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Transitor dán</t>
+  </si>
+  <si>
+    <t>http://banlinhkien.vn</t>
+  </si>
+  <si>
+    <t>http://www.tme.vn</t>
+  </si>
 </sst>
 </file>
 
@@ -270,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -280,6 +380,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9154,8 +9257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9195,10 +9298,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -9207,8 +9310,8 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
@@ -9453,11 +9556,11 @@
       <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="13" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9466,37 +9569,37 @@
       <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12" t="s">
+      <c r="F23" s="12"/>
+      <c r="G23" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9614,4 +9717,218 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B10:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="64" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="108.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>